--- a/biology/Zoologie/Aiguillat_coq/Aiguillat_coq.xlsx
+++ b/biology/Zoologie/Aiguillat_coq/Aiguillat_coq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Squalus blainville, l’aiguillat coq, est une espèce de requins que l'on trouve dans tous les océans, dans une profondeur comprise entre 15 et 800 mètres. Il peut atteindre un mètre de long.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
